--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170824_195818/Task2_48hr_48well_discon_170824_195818_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170824_195818/Task2_48hr_48well_discon_170824_195818_wellNames.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,8 +292,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -307,15 +311,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -644,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -661,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -678,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -712,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -729,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -746,7 +754,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -763,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -783,7 +791,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -814,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -834,7 +842,7 @@
         <v>48</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -865,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -885,7 +893,7 @@
         <v>48</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1021,7 +1029,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1105,8 +1113,8 @@
       <c r="D30">
         <v>48</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,8 +1164,8 @@
       <c r="D33">
         <v>48</v>
       </c>
-      <c r="E33" t="b">
-        <v>1</v>
+      <c r="E33" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1171,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1205,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1222,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1241,8 +1249,8 @@
       <c r="D38">
         <v>48</v>
       </c>
-      <c r="E38" t="b">
-        <v>1</v>
+      <c r="E38" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1273,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1307,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1324,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1341,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1358,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1375,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
